--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/80_Yozgat_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/80_Yozgat_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70EA2883-0331-4E9D-80A7-DC5B5F2DE0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8692D2-851D-4B73-8773-DCD7A21A6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{F93A2454-744C-4E06-9974-5D07DD7DB82E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{480661FF-6E75-42AF-B860-FC155A9A2DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -958,13 +958,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{BD76A16B-B376-498E-9670-BCFF5051624D}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{ADA5494F-7375-4470-9EEA-5CE4EDF8770C}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{6EAF22C6-C854-42C0-B6F0-4124370767A0}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{74F9712D-2936-40A8-8566-7FC9C790D384}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{8D7B8BA7-7FBD-49EC-B4F5-ECE2A37FF90B}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{2352D68A-EA7B-491A-9E0C-EBC156E4F47E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{F6833F59-234B-4D1B-897D-0411349408E8}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{416ADE53-9B78-4FEC-AE80-FDF75EAAFA21}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8F3756C7-FC7E-429F-AF15-55DCBB9A316B}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{8A4CA857-473D-4204-B32A-F02242DE6430}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{E45CB769-8786-476C-8B49-70F4AAEA4846}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{AD12151A-0B65-4C7A-9D43-AC7632CF96D4}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{9BC4D7BE-BF16-4FFC-B6CA-E2F48886B643}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{9C636F9A-A4EF-4A01-9053-E1DDA7F207A7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCFFFEB-6F12-41F8-8B1B-CAFB1712E514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6981DD31-AD20-47FE-9322-D294DE9B05B8}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2596,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04FEF12-B038-41B2-95FD-C0CA37322B8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFA8CEF-DD25-4003-9F89-2EF3CB27A6DC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3825,7 +3825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1F6A4E-381F-422B-9F53-476819F60F23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3ED356-0079-4838-99E5-CC65F444FA1C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5032,7 +5032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F925A2F-88B6-47D5-A3DB-B4843F6892D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB60B31-88E8-4EC9-9579-A45E492A97D0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6231,7 +6231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F9261D-098D-4023-B3CB-C93950CC034B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70F5C1D-BA15-4C82-BA4C-65CD959534FA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7494,7 +7494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBA1842-975E-48F0-97CD-05726F85C93C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768BB1D1-512B-4CAF-9044-675227F12CF8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8757,7 +8757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72BB7BC-CC20-4413-AB2F-ABE5AB1B7AF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2610F4FF-A598-4E17-AD16-606FEDEF82B3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10020,7 +10020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3E2381-DB12-4926-828C-6ED9EECA8464}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFFEFBB-0C6A-4954-A3CB-6560F961FAEC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11283,7 +11283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD71894-A7CA-40C0-B9F6-C39801C9C85B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D206622-D562-4DDA-8EC6-0431D6AC91A5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12546,7 +12546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61A7795-3FB6-4D3E-B063-BD9CFAD33C8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0033B9FD-CD70-43D4-8738-61A8CD2C7DE4}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13795,7 +13795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3C9950-95E6-4DD7-AF3F-8050052AB41C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2ACD4AB-7FB2-497A-A514-22AFF5829C95}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15044,7 +15044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D098F29-E8E2-4515-A367-24F34F838DE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1780417-3DD4-4295-A38F-9081A1F141A3}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
